--- a/biology/Médecine/Léon_Tétreault/Léon_Tétreault.xlsx
+++ b/biology/Médecine/Léon_Tétreault/Léon_Tétreault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_T%C3%A9treault</t>
+          <t>Léon_Tétreault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Tétreault (1932-2004) est un médecin et pharmacologiste canadien, professeur titulaire de la Faculté de médecine et des sciences de la santé de l'Université de Sherbrooke.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_T%C3%A9treault</t>
+          <t>Léon_Tétreault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 1er mai 1932 à Montréal dans le quartier Hochelaga-Maisonneuve et décédé le  6 décembre 2004 à l’Institut de cardiologie de Montréal, Léon Tétreault fait ses études collégiales à l’Externat classique Sainte-Croix et complète ses études de médecine à l’Université de Montréal en 1958. Il obtient ensuite une maîtrise en pharmacologie sous la direction du Dr. Aurèle Beaulne et fait une formation de pharmacologie clinique à Paris auprès du professeur Jean Cheymol. Il est ensuite admis dans l’unité de recherche clinique du professeur Louis Lasagna de l’université Johns-Hopkins de Baltimore, puis il revient à l'Université de Montréal en 1962 pour se joindre à l’équipe du Dr. Beaulne à titre de professeur adjoint et d'agrégé de recherche. Avec le Dr. Jean-Marie Bordeleau, il contribue au développement de la psychopharmacologie, un secteur nouveau à cette époque. En 1967, il devient codirecteur du Service de recherche Georges-Villeneuve de l’Hôpital Louis-Hippolyte Lafontaine. En 1972, il assume la direction de l’INRS-Santé, puis devient en 1977 professeur titulaire en médecine et conseiller à la recherche clinique du Centre hospitalier universitaire de Sherbrooke (CHUS).
 </t>
